--- a/tosha.xlsx
+++ b/tosha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yarik\Desktop\diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8759910A-9B9D-424F-8515-3EBD1084A085}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF5083C-7BA5-412E-A4DC-2C77B844941F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="1308" windowWidth="15024" windowHeight="11052" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Путь" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
   <si>
     <t>Физкультурный зал</t>
   </si>
@@ -288,6 +288,21 @@
   </si>
   <si>
     <t>На завтрак каша молочная ассорти, батон с маслом, кофейный напиток с молоком На обед салат "Панагюрский", суп картофельный с бобовыми, гренки, картофельное пюре со свеклой, рыба тушенная с овощами, компот из сухофруктов и шиповника, хлеб ржаной На полдник молоко кипяченое, коржик молочный На ужин запеканка из творога с морковью, молоко сгущенное, чай, хлеб пшеничный</t>
+  </si>
+  <si>
+    <t>3 6 1 2 5</t>
+  </si>
+  <si>
+    <t>3 6 1 2 1</t>
+  </si>
+  <si>
+    <t>3 6 1 2 3</t>
+  </si>
+  <si>
+    <t>3 6 1 2 2</t>
+  </si>
+  <si>
+    <t>3 6 1 2 6</t>
   </si>
 </sst>
 </file>
@@ -809,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B507612-4DDF-4207-AA6A-867DEF90C06E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,48 +843,48 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>36125</v>
+      <c r="B2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3">
-        <v>36121</v>
+      <c r="B3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4">
-        <v>36123</v>
+      <c r="B4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5">
-        <v>36121</v>
+      <c r="B5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>36122</v>
+      <c r="B6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>36126</v>
+      <c r="B7" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3799603A-CABE-4AD3-89F1-7DB6F2170BB6}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
